--- a/biology/Médecine/Ministère_de_la_Santé_(Bénin)/Ministère_de_la_Santé_(Bénin).xlsx
+++ b/biology/Médecine/Ministère_de_la_Santé_(Bénin)/Ministère_de_la_Santé_(Bénin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_(B%C3%A9nin)</t>
+          <t>Ministère_de_la_Santé_(Bénin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ministère de la Santé est le département ministériel du gouvernement béninois chargée de la mise en œuvre de la politique du gouvernement dans le domaine de la santé publique.
 Le siège central du ministère se situe au quartier Sodjatinmé Rue 1684 dans le 4e arrondissement de Cotonou
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_(B%C3%A9nin)</t>
+          <t>Ministère_de_la_Santé_(Bénin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -509,41 +521,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Organisation et attributions</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Administration centrale
-Administration décentralisée</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_(B%C3%A9nin)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Minist%C3%A8re_de_la_Sant%C3%A9_(B%C3%A9nin)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
           <t>Liste des ministres de la Santé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>2016-2018 : Alassane Seidou
 depuis 2018 : Benjamin Hounkpatin</t>
